--- a/data/trans_camb/IP18A04-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP18A04-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -63,13 +63,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -504,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,9 +516,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,21 +531,18 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +559,22 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
+          <t>2012/2007</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>2015/2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>2012/2007</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2015/2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2023/2007</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2012/2007</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2015/2007</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2023/2007</t>
         </is>
       </c>
     </row>
@@ -615,9 +587,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -642,37 +611,22 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>36,14</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>2,76</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>28,33</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>2,76</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
           <t>2,56</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>32,42</t>
         </is>
       </c>
     </row>
@@ -695,37 +649,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23,16; 48,86</t>
+          <t>-4,13; 5,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 5,49</t>
+          <t>-4,12; 5,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 5,93</t>
+          <t>-0,17; 6,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,34; 43,52</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-0,17; 6,17</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
           <t>-0,71; 5,58</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>22,57; 41,75</t>
         </is>
       </c>
     </row>
@@ -748,37 +687,22 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>661,9%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>7,51%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>36,32%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>290,25%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>36,32%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
           <t>33,71%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>426,59%</t>
         </is>
       </c>
     </row>
@@ -801,44 +725,29 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>328,83; 1291,95</t>
+          <t>-34,06; 72,08</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,06; 72,08</t>
+          <t>-33,19; 82,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,19; 82,74</t>
+          <t>-2,12; 100,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>123,83; 548,19</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-2,12; 100,94</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
           <t>-9,27; 89,16</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>272,13; 654,02</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>31,83</t>
+          <t>9,04</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>5,13</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>34,12</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-1,98</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>32,92</t>
+          <t>-0,68</t>
         </is>
       </c>
     </row>
@@ -901,47 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 4,66</t>
+          <t>-4,01; 6,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 2,64</t>
+          <t>-7,58; 1,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,36; 43,68</t>
+          <t>4,52; 14,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 5,54</t>
+          <t>-2,05; 5,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 3,56</t>
+          <t>1,1; 8,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,26; 50,04</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-3,44; 3,72</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-5,69; 1,56</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>23,71; 42,62</t>
+          <t>-3,91; 2,46</t>
         </is>
       </c>
     </row>
@@ -954,47 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,47%</t>
+          <t>12,68%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-16,98%</t>
+          <t>-25,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>225,72%</t>
+          <t>162,28%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>33,23%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-12,57%</t>
+          <t>57,92%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>278,66%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,7%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-14,98%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>249,6%</t>
+          <t>-7,73%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-33,83; 39,54</t>
+          <t>-27,19; 69,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-44,97; 22,79</t>
+          <t>-52,29; 19,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>123,96; 364,56</t>
+          <t>53,35; 427,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-28,92; 61,74</t>
+          <t>-27,74; 155,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-47,28; 37,2</t>
+          <t>10,09; 119,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>142,81; 491,38</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-22,93; 31,18</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-38,11; 13,27</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>161,33; 354,61</t>
+          <t>-36,62; 34,84</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-3,0</t>
+          <t>-2,39</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>25,28</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,04</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>41,77</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>5,13</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-0,68</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>33,15</t>
+          <t>-1,98</t>
         </is>
       </c>
     </row>
@@ -1117,47 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 6,66</t>
+          <t>-5,76; 4,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 1,67</t>
+          <t>-7,21; 2,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,66; 40,1</t>
+          <t>-4,28; 5,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,52; 14,68</t>
+          <t>-6,83; 3,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 5,76</t>
+          <t>-3,44; 3,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>28,86; 56,62</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>1,1; 8,64</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-3,91; 2,46</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>22,53; 42,44</t>
+          <t>-5,69; 1,56</t>
         </is>
       </c>
     </row>
@@ -1170,47 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>-2,47%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-25,28%</t>
+          <t>-16,98%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>213,08%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>162,28%</t>
+          <t>-12,57%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>33,23%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>749,7%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>57,92%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-7,73%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>374,59%</t>
+          <t>-14,98%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-27,19; 69,04</t>
+          <t>-33,83; 39,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-52,29; 19,09</t>
+          <t>-44,97; 22,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>81,98; 380,12</t>
+          <t>-28,92; 61,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>53,35; 427,22</t>
+          <t>-47,28; 37,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-27,74; 155,95</t>
+          <t>-22,93; 31,18</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>388,3; 1469,46</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>10,09; 119,4</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-36,62; 34,84</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>225,36; 572,41</t>
+          <t>-38,11; 13,27</t>
         </is>
       </c>
     </row>
@@ -1290,37 +1079,22 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>31,71</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>35,44</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>2,53</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
           <t>-0,14</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>33,41</t>
         </is>
       </c>
     </row>
@@ -1343,37 +1117,22 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>23,23; 39,63</t>
+          <t>0,6; 6,04</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,6; 6,04</t>
+          <t>-2,38; 2,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 2,97</t>
+          <t>0,42; 4,39</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>27,1; 44,23</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>0,42; 4,39</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
           <t>-1,91; 1,84</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>27,62; 39,28</t>
         </is>
       </c>
     </row>
@@ -1396,37 +1155,22 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>298,59%</t>
+          <t>36,14%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>36,14%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>25,26%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>377,39%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>25,26%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
           <t>-1,42%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>333,54%</t>
         </is>
       </c>
     </row>
@@ -1449,48 +1193,33 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>203,24; 412,19</t>
+          <t>5,51; 74,71</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,51; 74,71</t>
+          <t>-22,59; 36,73</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-22,59; 36,73</t>
+          <t>4,05; 48,48</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>263,54; 530,34</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>4,05; 48,48</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
           <t>-17,42; 20,1</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>254,41; 417,04</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP18A04-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP18A04-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,33</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,38</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>-0,24</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 8,4</t>
+          <t>-2,97; 10,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,3; 8,99</t>
+          <t>-4,67; 6,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 5,49</t>
+          <t>-6,69; 5,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 5,93</t>
+          <t>-7,42; 4,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 6,17</t>
+          <t>-2,84; 5,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 5,58</t>
+          <t>-4,9; 3,68</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>79,36%</t>
+          <t>46,65%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>80,25%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,37%</t>
+          <t>-5,76%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>-15,3%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>36,32%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>33,71%</t>
+          <t>-2,6%</t>
         </is>
       </c>
     </row>
@@ -715,39 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,04; 239,96</t>
+          <t>-27,43; 211,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,29; 244,64</t>
+          <t>-40,46; 131,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-34,06; 72,08</t>
+          <t>-50,73; 84,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-33,19; 82,74</t>
+          <t>-54,54; 74,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 100,94</t>
+          <t>-23,95; 84,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 89,16</t>
+          <t>-41,96; 53,22</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-3,0</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,04</t>
+          <t>6,48</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,13</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>2,84</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 6,66</t>
+          <t>-2,11; 5,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 1,67</t>
+          <t>-1,67; 6,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,52; 14,68</t>
+          <t>1,31; 10,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 5,76</t>
+          <t>-0,96; 7,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,1; 8,64</t>
+          <t>0,71; 6,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 2,46</t>
+          <t>-0,05; 5,98</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>24,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-25,28%</t>
+          <t>31,44%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>162,28%</t>
+          <t>94,24%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>33,23%</t>
+          <t>48,53%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>57,92%</t>
+          <t>56,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-7,73%</t>
+          <t>39,36%</t>
         </is>
       </c>
     </row>
@@ -871,39 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-27,19; 69,04</t>
+          <t>-23,09; 107,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-52,29; 19,09</t>
+          <t>-22,23; 107,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>53,35; 427,22</t>
+          <t>14,16; 213,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,74; 155,95</t>
+          <t>-13,54; 138,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,09; 119,4</t>
+          <t>7,76; 111,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,62; 34,84</t>
+          <t>-2,1; 100,14</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>4,45</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,54</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>-1,31</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 4,66</t>
+          <t>-5,28; 8,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 2,64</t>
+          <t>-7,03; 5,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 5,54</t>
+          <t>-2,66; 10,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 3,56</t>
+          <t>-8,44; 3,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 3,72</t>
+          <t>-1,48; 7,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 1,56</t>
+          <t>-5,46; 2,95</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-2,47%</t>
+          <t>16,48%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-16,98%</t>
+          <t>-3,24%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>41,49%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-12,57%</t>
+          <t>-20,24%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>28,04%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-14,98%</t>
+          <t>-11,52%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1027,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-33,83; 39,54</t>
+          <t>-34,78; 102,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-44,97; 22,79</t>
+          <t>-43,82; 63,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-28,92; 61,74</t>
+          <t>-20,12; 160,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-47,28; 37,2</t>
+          <t>-56,81; 48,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-22,93; 31,18</t>
+          <t>-11,2; 90,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-38,11; 13,27</t>
+          <t>-39,81; 34,19</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-5,81</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-3,47</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 4,61</t>
+          <t>-6,35; 6,79</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 2,56</t>
+          <t>-11,72; 0,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,6; 6,04</t>
+          <t>-4,87; 6,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 2,97</t>
+          <t>-6,63; 4,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,42; 4,39</t>
+          <t>-3,66; 4,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 1,84</t>
+          <t>-7,63; 0,44</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>-0,59%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-4,08%</t>
+          <t>-37,79%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>36,14%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>-9,09%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>25,26%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-1,42%</t>
+          <t>-25,63%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1183,207 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 49,45</t>
+          <t>-33,97; 52,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-25,45; 28,58</t>
+          <t>-63,93; 2,73</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,51; 74,71</t>
+          <t>-36,15; 83,67</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-22,59; 36,73</t>
+          <t>-49,06; 53,83</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,05; 48,48</t>
+          <t>-24,6; 45,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-17,42; 20,1</t>
+          <t>-48,75; 4,42</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1,71</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>3,39</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>2,53</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,93; 4,74</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,89; 2,45</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0,25; 6,04</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-2,4; 2,83</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0,52; 4,68</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-1,99; 1,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>16,1%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-4,08%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>36,14%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1,72%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>25,26%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-1,42%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-7,54; 52,8</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-24,62; 27,93</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1,57; 75,09</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-21,75; 37,1</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>3,53; 50,5</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-18,36; 19,63</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP18A04-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP18A04-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 10,71</t>
+          <t>-2,24; 9,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 6,9</t>
+          <t>-4,97; 7,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,69; 5,34</t>
+          <t>-6,32; 5,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 4,58</t>
+          <t>-7,48; 4,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 5,88</t>
+          <t>-2,59; 6,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 3,68</t>
+          <t>-4,21; 4,15</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-27,43; 211,21</t>
+          <t>-21,53; 170,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-40,46; 131,63</t>
+          <t>-44,27; 131,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-50,73; 84,02</t>
+          <t>-48,34; 86,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-54,54; 74,69</t>
+          <t>-56,04; 64,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,95; 84,49</t>
+          <t>-21,65; 86,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-41,96; 53,22</t>
+          <t>-36,11; 61,47</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 5,89</t>
+          <t>-2,46; 5,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 6,34</t>
+          <t>-1,89; 6,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 10,95</t>
+          <t>2,1; 11,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 7,57</t>
+          <t>-0,74; 7,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 6,74</t>
+          <t>0,68; 7,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 5,98</t>
+          <t>-0,16; 6,08</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,09; 107,09</t>
+          <t>-26,91; 100,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-22,23; 107,92</t>
+          <t>-21,04; 116,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,16; 213,47</t>
+          <t>21,85; 233,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,54; 138,75</t>
+          <t>-8,73; 165,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,76; 111,61</t>
+          <t>7,1; 122,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 100,14</t>
+          <t>-2,61; 102,89</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 8,61</t>
+          <t>-5,6; 8,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 5,67</t>
+          <t>-7,05; 5,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 10,7</t>
+          <t>-2,59; 11,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 3,41</t>
+          <t>-8,31; 3,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 7,84</t>
+          <t>-1,38; 8,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 2,95</t>
+          <t>-5,43; 2,91</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-34,78; 102,93</t>
+          <t>-35,94; 99,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-43,82; 63,44</t>
+          <t>-45,02; 64,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-20,12; 160,26</t>
+          <t>-17,95; 161,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-56,81; 48,83</t>
+          <t>-56,52; 55,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-11,2; 90,88</t>
+          <t>-9,66; 93,9</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,81; 34,19</t>
+          <t>-39,14; 33,8</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 6,79</t>
+          <t>-6,8; 6,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,72; 0,07</t>
+          <t>-11,84; 0,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 6,85</t>
+          <t>-5,16; 7,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 4,75</t>
+          <t>-6,5; 4,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 4,92</t>
+          <t>-3,92; 4,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 0,44</t>
+          <t>-7,33; 0,95</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-33,97; 52,43</t>
+          <t>-36,84; 48,52</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-63,93; 2,73</t>
+          <t>-64,16; 3,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-36,15; 83,67</t>
+          <t>-35,94; 80,83</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-49,06; 53,83</t>
+          <t>-46,72; 52,02</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-24,6; 45,49</t>
+          <t>-25,1; 44,91</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-48,75; 4,42</t>
+          <t>-47,65; 8,27</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 4,74</t>
+          <t>-0,99; 4,75</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 2,45</t>
+          <t>-3,1; 2,02</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,25; 6,04</t>
+          <t>0,4; 6,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 2,83</t>
+          <t>-2,4; 2,9</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,68</t>
+          <t>0,44; 4,66</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 1,78</t>
+          <t>-2,14; 1,98</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 52,8</t>
+          <t>-8,7; 51,9</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-24,62; 27,93</t>
+          <t>-25,2; 22,14</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1,57; 75,09</t>
+          <t>3,3; 76,14</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-21,75; 37,1</t>
+          <t>-22,7; 36,53</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>3,53; 50,5</t>
+          <t>4,46; 51,9</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-18,36; 19,63</t>
+          <t>-19,22; 22,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP18A04-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP18A04-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -601,22 +601,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-1,56</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>3,96</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>1,06</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,59</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-1,56</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 9,55</t>
+          <t>-6,33; 5,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 7,29</t>
+          <t>-8,14; 4,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 5,83</t>
+          <t>-2,05; 9,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,48; 4,52</t>
+          <t>-4,81; 7,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 6,18</t>
+          <t>-2,6; 6,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 4,15</t>
+          <t>-4,47; 4,03</t>
         </is>
       </c>
     </row>
@@ -677,22 +677,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-5,76%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-15,3%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>46,65%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>12,53%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-5,76%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-15,3%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,53; 170,07</t>
+          <t>-46,67; 90,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-44,27; 131,76</t>
+          <t>-56,95; 70,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-48,34; 86,86</t>
+          <t>-19,0; 191,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-56,04; 64,34</t>
+          <t>-42,55; 130,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,65; 86,5</t>
+          <t>-22,64; 92,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-36,11; 61,47</t>
+          <t>-39,37; 61,62</t>
         </is>
       </c>
     </row>
@@ -757,22 +757,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>6,48</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3,33</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>1,89</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
         <is>
           <t>2,38</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,48</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,33</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 5,91</t>
+          <t>1,81; 10,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 6,58</t>
+          <t>-0,9; 7,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,1; 11,56</t>
+          <t>-2,57; 5,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 7,69</t>
+          <t>-1,76; 6,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 7,15</t>
+          <t>1,04; 7,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 6,08</t>
+          <t>-0,13; 6,1</t>
         </is>
       </c>
     </row>
@@ -833,22 +833,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>94,24%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>48,53%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>24,99%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
         <is>
           <t>31,44%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>94,24%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>48,53%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,91; 100,53</t>
+          <t>17,51; 227,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,04; 116,6</t>
+          <t>-11,7; 175,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,85; 233,04</t>
+          <t>-26,35; 102,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 165,39</t>
+          <t>-18,23; 110,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,1; 122,88</t>
+          <t>11,47; 120,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 102,89</t>
+          <t>-1,59; 100,5</t>
         </is>
       </c>
     </row>
@@ -913,22 +913,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>4,45</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-2,17</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>1,96</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>-0,39</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,45</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-2,17</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 8,29</t>
+          <t>-2,83; 11,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 5,66</t>
+          <t>-9,39; 3,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 11,25</t>
+          <t>-5,31; 8,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 3,79</t>
+          <t>-7,1; 5,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 8,06</t>
+          <t>-1,69; 7,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 2,91</t>
+          <t>-5,67; 3,35</t>
         </is>
       </c>
     </row>
@@ -989,22 +989,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>41,49%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-20,24%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>16,48%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>-3,24%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>41,49%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-20,24%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-35,94; 99,61</t>
+          <t>-20,72; 160,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-45,02; 64,51</t>
+          <t>-59,56; 58,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-17,95; 161,13</t>
+          <t>-32,79; 104,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-56,52; 55,2</t>
+          <t>-46,58; 64,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 93,9</t>
+          <t>-12,25; 81,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,14; 33,8</t>
+          <t>-40,82; 39,11</t>
         </is>
       </c>
     </row>
@@ -1069,22 +1069,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-1,06</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>-0,09</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>-5,81</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,91</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-1,06</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,8; 6,04</t>
+          <t>-5,2; 7,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,84; 0,29</t>
+          <t>-6,96; 4,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 7,23</t>
+          <t>-6,04; 6,79</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 4,76</t>
+          <t>-11,43; 0,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 4,99</t>
+          <t>-4,16; 4,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 0,95</t>
+          <t>-7,86; 0,7</t>
         </is>
       </c>
     </row>
@@ -1145,22 +1145,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>7,84%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-9,09%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>-0,59%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>-37,79%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>7,84%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-9,09%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-36,84; 48,52</t>
+          <t>-35,75; 80,18</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-64,16; 3,63</t>
+          <t>-49,82; 52,67</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-35,94; 80,83</t>
+          <t>-34,64; 60,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-46,72; 52,02</t>
+          <t>-63,9; 3,36</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-25,1; 44,91</t>
+          <t>-24,97; 42,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-47,65; 8,27</t>
+          <t>-49,86; 6,06</t>
         </is>
       </c>
     </row>
@@ -1225,22 +1225,22 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>3,39</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>1,71</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>-0,43</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>3,39</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,16</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 4,75</t>
+          <t>0,6; 6,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 2,02</t>
+          <t>-2,38; 2,97</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,4; 6,24</t>
+          <t>-1,21; 4,61</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 2,9</t>
+          <t>-3,11; 2,56</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0,44; 4,66</t>
+          <t>0,42; 4,39</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 1,98</t>
+          <t>-1,91; 1,84</t>
         </is>
       </c>
     </row>
@@ -1301,22 +1301,22 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>36,14%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1,72%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>16,1%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="F22" s="2" t="inlineStr">
         <is>
           <t>-4,08%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>36,14%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>1,72%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 51,9</t>
+          <t>5,51; 74,71</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-25,2; 22,14</t>
+          <t>-22,59; 36,73</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>3,3; 76,14</t>
+          <t>-10,22; 49,45</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-22,7; 36,53</t>
+          <t>-25,45; 28,58</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>4,46; 51,9</t>
+          <t>4,05; 48,48</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-19,22; 22,06</t>
+          <t>-17,42; 20,1</t>
         </is>
       </c>
     </row>
